--- a/汽柴煤油2.0/eta/中石化航空煤油企业结算价_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/中石化航空煤油企业结算价_月度数据.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>5179.1</v>
+        <v>5177.24</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>5297.99</v>
+        <v>5295.73</v>
       </c>
     </row>
     <row r="9">
